--- a/config/stimuli.xlsx
+++ b/config/stimuli.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C34953-C68D-4747-BD9C-C79081033207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="1548" windowWidth="14796" windowHeight="12312" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="1548" windowWidth="14796" windowHeight="12312" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="digit" sheetId="1" r:id="rId1"/>
     <sheet name="word" sheetId="2" r:id="rId2"/>
     <sheet name="space" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="281">
   <si>
     <t>stim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,285 @@
   </si>
   <si>
     <t>item_id</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>stim</t>
+  </si>
+  <si>
+    <t>0.66-0.38</t>
+  </si>
+  <si>
+    <t>0.85-0.76</t>
+  </si>
+  <si>
+    <t>0.86-0.68</t>
+  </si>
+  <si>
+    <t>0.82-0.64</t>
+  </si>
+  <si>
+    <t>0.85-0.27</t>
+  </si>
+  <si>
+    <t>0.73-0.66</t>
+  </si>
+  <si>
+    <t>0.69-0.68</t>
+  </si>
+  <si>
+    <t>0.79-0.23</t>
+  </si>
+  <si>
+    <t>0.88-0.38</t>
+  </si>
+  <si>
+    <t>0.75-0.36</t>
+  </si>
+  <si>
+    <t>0.74-0.36</t>
+  </si>
+  <si>
+    <t>0.89-0.86</t>
+  </si>
+  <si>
+    <t>0.89-0.19</t>
+  </si>
+  <si>
+    <t>0.69-0.62</t>
+  </si>
+  <si>
+    <t>0.72-0.34</t>
+  </si>
+  <si>
+    <t>0.83-0.62</t>
+  </si>
+  <si>
+    <t>0.80-0.25</t>
+  </si>
+  <si>
+    <t>0.69-0.38</t>
+  </si>
+  <si>
+    <t>0.77-0.34</t>
+  </si>
+  <si>
+    <t>0.66-0.63</t>
+  </si>
+  <si>
+    <t>0.82-0.23</t>
+  </si>
+  <si>
+    <t>0.39-0.66</t>
+  </si>
+  <si>
+    <t>0.39-0.73</t>
+  </si>
+  <si>
+    <t>0.38-0.76</t>
+  </si>
+  <si>
+    <t>0.39-0.84</t>
+  </si>
+  <si>
+    <t>0.75-0.82</t>
+  </si>
+  <si>
+    <t>0.63-0.85</t>
+  </si>
+  <si>
+    <t>0.72-0.85</t>
+  </si>
+  <si>
+    <t>0.18-0.85</t>
+  </si>
+  <si>
+    <t>0.26-0.75</t>
+  </si>
+  <si>
+    <t>0.32-0.80</t>
+  </si>
+  <si>
+    <t>0.61-0.88</t>
+  </si>
+  <si>
+    <t>0.33-0.72</t>
+  </si>
+  <si>
+    <t>0.26-0.81</t>
+  </si>
+  <si>
+    <t>0.35-0.82</t>
+  </si>
+  <si>
+    <t>0.79-0.88</t>
+  </si>
+  <si>
+    <t>0.76-0.82</t>
+  </si>
+  <si>
+    <t>0.30-0.86</t>
+  </si>
+  <si>
+    <t>0.23-0.79</t>
+  </si>
+  <si>
+    <t>0.71-0.89</t>
+  </si>
+  <si>
+    <t>0.21-0.87</t>
+  </si>
+  <si>
+    <t>0.40-0.60</t>
+  </si>
+  <si>
+    <t>0.35-0.36</t>
+  </si>
+  <si>
+    <t>0.12-0.80</t>
+  </si>
+  <si>
+    <t>0.27-0.70</t>
+  </si>
+  <si>
+    <t>0.17-0.73</t>
+  </si>
+  <si>
+    <t>0.13-0.20</t>
+  </si>
+  <si>
+    <t>0.30-0.32</t>
+  </si>
+  <si>
+    <t>0.18-0.29</t>
+  </si>
+  <si>
+    <t>0.26-0.71</t>
+  </si>
+  <si>
+    <t>0.13-0.81</t>
+  </si>
+  <si>
+    <t>0.24-0.71</t>
+  </si>
+  <si>
+    <t>0.20-0.40</t>
+  </si>
+  <si>
+    <t>0.19-0.64</t>
+  </si>
+  <si>
+    <t>0.18-0.31</t>
+  </si>
+  <si>
+    <t>0.11-0.37</t>
+  </si>
+  <si>
+    <t>0.16-0.82</t>
+  </si>
+  <si>
+    <t>0.18-0.81</t>
+  </si>
+  <si>
+    <t>0.22-0.75</t>
+  </si>
+  <si>
+    <t>0.27-0.72</t>
+  </si>
+  <si>
+    <t>0.29-0.29</t>
+  </si>
+  <si>
+    <t>0.18-0.66</t>
+  </si>
+  <si>
+    <t>0.21-0.36</t>
+  </si>
+  <si>
+    <t>0.20-0.20</t>
+  </si>
+  <si>
+    <t>0.30-0.10</t>
+  </si>
+  <si>
+    <t>0.68-0.20</t>
+  </si>
+  <si>
+    <t>0.66-0.10</t>
+  </si>
+  <si>
+    <t>0.20-0.17</t>
+  </si>
+  <si>
+    <t>0.72-0.17</t>
+  </si>
+  <si>
+    <t>0.37-0.15</t>
+  </si>
+  <si>
+    <t>0.24-0.19</t>
+  </si>
+  <si>
+    <t>0.14-0.13</t>
+  </si>
+  <si>
+    <t>0.31-0.15</t>
+  </si>
+  <si>
+    <t>0.35-0.16</t>
+  </si>
+  <si>
+    <t>0.36-0.32</t>
+  </si>
+  <si>
+    <t>0.36-0.24</t>
+  </si>
+  <si>
+    <t>0.70-0.16</t>
+  </si>
+  <si>
+    <t>0.68-0.12</t>
+  </si>
+  <si>
+    <t>0.71-0.22</t>
+  </si>
+  <si>
+    <t>0.36-0.22</t>
+  </si>
+  <si>
+    <t>0.33-0.24</t>
+  </si>
+  <si>
+    <t>0.37-0.31</t>
+  </si>
+  <si>
+    <t>0.76-0.12</t>
+  </si>
+  <si>
+    <t>0.31-0.20</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>group_note</t>
+  </si>
+  <si>
+    <t>第一象限</t>
+  </si>
+  <si>
+    <t>第二象限</t>
+  </si>
+  <si>
+    <t>第三象限</t>
+  </si>
+  <si>
+    <t>第四象限</t>
+  </si>
+  <si>
+    <t>stim_id</t>
   </si>
   <si>
     <t>block</t>
@@ -641,7 +920,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -649,16 +928,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -677,50 +958,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E65AFF8-B6F8-4AFD-B577-6BF509DD66D2}" name="表2" displayName="表2" ref="A1:E85" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" id="2" name="表2" displayName="表2" ref="A1:E85" totalsRowShown="false" mc:Ignorable="xr xr3" xr:uid="{5E65AFF8-B6F8-4AFD-B577-6BF509DD66D2}">
   <autoFilter ref="A1:E85" xr:uid="{603C3777-A448-46B0-B0DF-C9CD1202FB8D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E85">
+  <sortState ref="A2:E85">
     <sortCondition ref="D1:D85"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{084C88DD-4AA2-4324-8B45-98D89553F013}" name="stim_id"/>
-    <tableColumn id="6" xr3:uid="{730BA62C-6825-4FC2-945B-F7D01E930D1D}" name="block"/>
-    <tableColumn id="3" xr3:uid="{04D49590-9572-43B4-94F5-CFB54476CCF5}" name="stim"/>
-    <tableColumn id="4" xr3:uid="{7BF2B9DB-4A0D-4AB1-A651-28711EB38186}" name="group"/>
-    <tableColumn id="5" xr3:uid="{BD2FD667-533B-4071-991C-6EC7C400322D}" name="group_note"/>
+    <tableColumn id="2" name="stim_id" xr3:uid="{084C88DD-4AA2-4324-8B45-98D89553F013}"/>
+    <tableColumn id="6" name="block" xr3:uid="{730BA62C-6825-4FC2-945B-F7D01E930D1D}"/>
+    <tableColumn id="3" name="stim" xr3:uid="{04D49590-9572-43B4-94F5-CFB54476CCF5}"/>
+    <tableColumn id="4" name="group" xr3:uid="{7BF2B9DB-4A0D-4AB1-A651-28711EB38186}"/>
+    <tableColumn id="5" name="group_note" xr3:uid="{BD2FD667-533B-4071-991C-6EC7C400322D}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8EAA4DC-D0C3-4029-B797-C0814A890E58}" name="表1" displayName="表1" ref="A1:E85" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" id="1" name="表1" displayName="表1" ref="A1:E85" totalsRowShown="false" mc:Ignorable="xr xr3" xr:uid="{C8EAA4DC-D0C3-4029-B797-C0814A890E58}">
   <autoFilter ref="A1:E85" xr:uid="{20A63BF5-DAA3-406C-A50F-EC7D4951A8EF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E85">
+  <sortState ref="A2:E85">
     <sortCondition ref="D1:D85"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{3104464A-7E44-47E9-93EF-B9F5A23747CE}" name="stim_id"/>
-    <tableColumn id="6" xr3:uid="{963E696A-4C35-4EAD-8EC2-411B5A648D52}" name="block"/>
-    <tableColumn id="3" xr3:uid="{E1110788-8007-431F-8EB7-EF7D45207047}" name="stim"/>
-    <tableColumn id="4" xr3:uid="{1D4A17ED-A467-4D3E-8B00-11B91D7FC883}" name="group"/>
-    <tableColumn id="5" xr3:uid="{865449B4-FB4D-494C-952A-C865350B6C9C}" name="group_note"/>
+    <tableColumn id="2" name="stim_id" xr3:uid="{3104464A-7E44-47E9-93EF-B9F5A23747CE}"/>
+    <tableColumn id="6" name="block" xr3:uid="{963E696A-4C35-4EAD-8EC2-411B5A648D52}"/>
+    <tableColumn id="3" name="stim" xr3:uid="{E1110788-8007-431F-8EB7-EF7D45207047}"/>
+    <tableColumn id="4" name="group" xr3:uid="{1D4A17ED-A467-4D3E-8B00-11B91D7FC883}"/>
+    <tableColumn id="5" name="group_note" xr3:uid="{865449B4-FB4D-494C-952A-C865350B6C9C}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{68E410C8-3CCD-46B7-819E-ADE0C4FAFF97}" name="表3" displayName="表3" ref="A1:E85" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" id="3" name="表3" displayName="表3" ref="A1:E85" totalsRowShown="false" mc:Ignorable="xr xr3" xr:uid="{68E410C8-3CCD-46B7-819E-ADE0C4FAFF97}">
   <autoFilter ref="A1:E85" xr:uid="{ADAB454D-33FC-4A8A-873C-ED4BA7513222}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D478C612-53CB-46FF-B033-B681B9D0EAF0}" name="item_id"/>
-    <tableColumn id="2" xr3:uid="{5AA8D9FB-DEFA-4951-96F6-0ED8612D571C}" name="block"/>
-    <tableColumn id="3" xr3:uid="{254884D5-370F-4E2E-A795-9E9CB94ED856}" name="stim"/>
-    <tableColumn id="4" xr3:uid="{0086354F-71D6-4E4F-8E30-8985F5E2F6A4}" name="group"/>
-    <tableColumn id="5" xr3:uid="{2CA54133-0FFA-42A4-B8D6-F442A51120DB}" name="group_note"/>
+    <tableColumn id="1" name="item_id" xr3:uid="{D478C612-53CB-46FF-B033-B681B9D0EAF0}"/>
+    <tableColumn id="2" name="block" xr3:uid="{5AA8D9FB-DEFA-4951-96F6-0ED8612D571C}"/>
+    <tableColumn id="3" name="stim" xr3:uid="{254884D5-370F-4E2E-A795-9E9CB94ED856}"/>
+    <tableColumn id="4" name="group" xr3:uid="{0086354F-71D6-4E4F-8E30-8985F5E2F6A4}"/>
+    <tableColumn id="5" name="group_note" xr3:uid="{2CA54133-0FFA-42A4-B8D6-F442A51120DB}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
@@ -1029,11 +1310,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="1" max="2" width="9.44140625" customWidth="true"/>
+    <col min="5" max="5" width="13.6640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -1050,7 +1331,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1067,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1084,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1101,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1118,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1135,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1152,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1169,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1186,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1203,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1220,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1237,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1254,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1271,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1288,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1305,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1322,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1339,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1356,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1373,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1390,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1407,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1424,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1441,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1458,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1475,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1492,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1509,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1526,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1543,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1560,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1577,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1594,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1611,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1628,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1645,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1662,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1679,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1696,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1713,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1730,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1747,7 +2028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1764,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1781,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1798,7 +2079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1815,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1832,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1849,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1866,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1883,7 +2164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1900,7 +2181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1917,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1934,7 +2215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1951,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1968,7 +2249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1985,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2002,7 +2283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2019,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2036,7 +2317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2053,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2070,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2087,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2104,7 +2385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2121,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2138,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2155,7 +2436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2172,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2189,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2206,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2223,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2240,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2257,7 +2538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2274,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2291,7 +2572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2308,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2325,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2342,7 +2623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2359,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2376,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2393,7 +2674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2410,7 +2691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2427,7 +2708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2444,7 +2725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2461,7 +2742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2498,11 +2779,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" customWidth="true"/>
+    <col min="6" max="6" width="13.6640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -2519,7 +2800,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2536,7 +2817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2553,7 +2834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2570,7 +2851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2587,7 +2868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2604,7 +2885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2621,7 +2902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2638,7 +2919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2655,7 +2936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2672,7 +2953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2689,7 +2970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2706,7 +2987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2723,7 +3004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2740,7 +3021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2757,7 +3038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2774,7 +3055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2791,7 +3072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2808,7 +3089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2825,7 +3106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2842,7 +3123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2859,7 +3140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2876,7 +3157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2893,7 +3174,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2910,7 +3191,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2927,7 +3208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2944,7 +3225,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2961,7 +3242,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2978,7 +3259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2995,7 +3276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3012,7 +3293,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3029,7 +3310,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3046,7 +3327,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3063,7 +3344,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3080,7 +3361,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3097,7 +3378,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3114,7 +3395,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3131,7 +3412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3148,7 +3429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3165,7 +3446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3182,7 +3463,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3199,7 +3480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3216,7 +3497,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3233,7 +3514,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3250,7 +3531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3267,7 +3548,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3284,7 +3565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3301,7 +3582,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3318,7 +3599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3335,7 +3616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3352,7 +3633,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3369,7 +3650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3386,7 +3667,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3403,7 +3684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3420,7 +3701,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3437,7 +3718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3454,7 +3735,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3471,7 +3752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3488,7 +3769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3505,7 +3786,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3522,7 +3803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3539,7 +3820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3556,7 +3837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3573,7 +3854,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3590,7 +3871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3607,7 +3888,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3624,7 +3905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3641,7 +3922,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3658,7 +3939,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3675,7 +3956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3692,7 +3973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3709,7 +3990,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3726,7 +4007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3743,7 +4024,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3760,7 +4041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3777,7 +4058,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3794,7 +4075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3811,7 +4092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3828,7 +4109,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3845,7 +4126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3862,7 +4143,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3879,7 +4160,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3896,7 +4177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3913,7 +4194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3930,7 +4211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3961,1462 +4242,1462 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.06640625" customWidth="true"/>
+    <col min="2" max="2" width="5.625" customWidth="true"/>
+    <col min="3" max="3" width="9.06640625" customWidth="true"/>
+    <col min="4" max="4" width="6.2890625" customWidth="true"/>
+    <col min="5" max="5" width="10.95703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="C2" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="C3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C4" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="0">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="0">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" s="0">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="0">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" s="0">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" s="0">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="0">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" s="0">
+        <v>4</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="0">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B15" s="0">
+        <v>4</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B16" s="0">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C17" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C18" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C19" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="0">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C20" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="0">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C21" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C22" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="0">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C23" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="0">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="0">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C24" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="0">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C25" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="0">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.25">
+      <c r="A26" s="0">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="0">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="0">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B27" s="0">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="0">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.25">
+      <c r="A28" s="0">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B28" s="0">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="0">
+        <v>2</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.25">
+      <c r="A29" s="0">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B29" s="0">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="0">
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="0">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B30" s="0">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25">
+      <c r="A31" s="0">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B31" s="0">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.25">
+      <c r="A32" s="0">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B32" s="0">
+        <v>3</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="0">
+        <v>2</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.25">
+      <c r="A33" s="0">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B33" s="0">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="0">
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.25">
+      <c r="A34" s="0">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B34" s="0">
+        <v>3</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.25">
+      <c r="A35" s="0">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B35" s="0">
+        <v>4</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="0">
+        <v>2</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.25">
+      <c r="A36" s="0">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B36" s="0">
+        <v>4</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.25">
+      <c r="A37" s="0">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B37" s="0">
+        <v>4</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.25">
+      <c r="A38" s="0">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="C38" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="0">
+        <v>2</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="0">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="C39" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="0">
+        <v>2</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.25">
+      <c r="A40" s="0">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="C40" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.25">
+      <c r="A41" s="0">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>6</v>
       </c>
-      <c r="C41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="C41" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="0">
+        <v>2</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.25">
+      <c r="A42" s="0">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>6</v>
       </c>
-      <c r="C42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="C42" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" s="0">
+        <v>2</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.25">
+      <c r="A43" s="0">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>6</v>
       </c>
-      <c r="C43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="C43" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.25">
+      <c r="A44" s="0">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>0</v>
       </c>
-      <c r="C44" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="C44" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="0">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>0</v>
       </c>
-      <c r="C45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="C45" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="0">
+        <v>3</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.25">
+      <c r="A46" s="0">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>0</v>
       </c>
-      <c r="C46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="C46" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="0">
+        <v>3</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.25">
+      <c r="A47" s="0">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B47" s="0">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="0">
+        <v>3</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.25">
+      <c r="A48" s="0">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B48" s="0">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="0">
+        <v>3</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.25">
+      <c r="A49" s="0">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B49" s="0">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="0">
+        <v>3</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" x14ac:dyDescent="0.25">
+      <c r="A50" s="0">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B50" s="0">
+        <v>2</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="0">
+        <v>3</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.25">
+      <c r="A51" s="0">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="B51" s="0">
+        <v>2</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" s="0">
+        <v>3</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" x14ac:dyDescent="0.25">
+      <c r="A52" s="0">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="B52" s="0">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="0">
+        <v>3</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" x14ac:dyDescent="0.25">
+      <c r="A53" s="0">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="B53" s="0">
+        <v>3</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="0">
+        <v>3</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" x14ac:dyDescent="0.25">
+      <c r="A54" s="0">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="B54" s="0">
+        <v>3</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" s="0">
+        <v>3</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" x14ac:dyDescent="0.25">
+      <c r="A55" s="0">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="B55" s="0">
+        <v>3</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="0">
+        <v>3</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" x14ac:dyDescent="0.25">
+      <c r="A56" s="0">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="B56" s="0">
+        <v>4</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="0">
+        <v>3</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" x14ac:dyDescent="0.25">
+      <c r="A57" s="0">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="B57" s="0">
+        <v>4</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" s="0">
+        <v>3</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" x14ac:dyDescent="0.25">
+      <c r="A58" s="0">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="B58" s="0">
+        <v>4</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="0">
+        <v>3</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" x14ac:dyDescent="0.25">
+      <c r="A59" s="0">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="C59" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" s="0">
+        <v>3</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="0">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0">
         <v>5</v>
       </c>
-      <c r="C60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="E60" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="C60" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="0">
+        <v>3</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" x14ac:dyDescent="0.25">
+      <c r="A61" s="0">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0">
         <v>5</v>
       </c>
-      <c r="C61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="C61" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="0">
+        <v>3</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" x14ac:dyDescent="0.25">
+      <c r="A62" s="0">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0">
         <v>6</v>
       </c>
-      <c r="C62" t="s">
-        <v>158</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="C62" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" s="0">
+        <v>3</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="0">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0">
         <v>6</v>
       </c>
-      <c r="C63" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="C63" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="0">
+        <v>3</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" x14ac:dyDescent="0.25">
+      <c r="A64" s="0">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0">
         <v>6</v>
       </c>
-      <c r="C64" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-      <c r="E64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="C64" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" s="0">
+        <v>3</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" x14ac:dyDescent="0.25">
+      <c r="A65" s="0">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0">
         <v>0</v>
       </c>
-      <c r="C65" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="C65" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" s="0">
+        <v>4</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" x14ac:dyDescent="0.25">
+      <c r="A66" s="0">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0">
         <v>0</v>
       </c>
-      <c r="C66" t="s">
-        <v>162</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="E66" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="C66" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" s="0">
+        <v>4</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" x14ac:dyDescent="0.25">
+      <c r="A67" s="0">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0">
         <v>0</v>
       </c>
-      <c r="C67" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67">
-        <v>4</v>
-      </c>
-      <c r="E67" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="C67" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="0">
+        <v>4</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" x14ac:dyDescent="0.25">
+      <c r="A68" s="0">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>164</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="B68" s="0">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" s="0">
+        <v>4</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" x14ac:dyDescent="0.25">
+      <c r="A69" s="0">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>165</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="B69" s="0">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="0">
+        <v>4</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" x14ac:dyDescent="0.25">
+      <c r="A70" s="0">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="B70" s="0">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="0">
+        <v>4</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" x14ac:dyDescent="0.25">
+      <c r="A71" s="0">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="B71" s="0">
+        <v>2</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D71" s="0">
+        <v>4</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" x14ac:dyDescent="0.25">
+      <c r="A72" s="0">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
-        <v>168</v>
-      </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-      <c r="E72" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="B72" s="0">
+        <v>2</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="0">
+        <v>4</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" x14ac:dyDescent="0.25">
+      <c r="A73" s="0">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>169</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="B73" s="0">
+        <v>2</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="0">
+        <v>4</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.25">
+      <c r="A74" s="0">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>170</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="B74" s="0">
+        <v>3</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="0">
+        <v>4</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="0">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>171</v>
-      </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-      <c r="E75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="B75" s="0">
+        <v>3</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" s="0">
+        <v>4</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" x14ac:dyDescent="0.25">
+      <c r="A76" s="0">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>172</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="B76" s="0">
+        <v>3</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="0">
+        <v>4</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" x14ac:dyDescent="0.25">
+      <c r="A77" s="0">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-      <c r="E77" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="B77" s="0">
+        <v>4</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" s="0">
+        <v>4</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" x14ac:dyDescent="0.25">
+      <c r="A78" s="0">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-      <c r="E78" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="B78" s="0">
+        <v>4</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="0">
+        <v>4</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" x14ac:dyDescent="0.25">
+      <c r="A79" s="0">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>175</v>
-      </c>
-      <c r="D79">
-        <v>4</v>
-      </c>
-      <c r="E79" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="B79" s="0">
+        <v>4</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" s="0">
+        <v>4</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" x14ac:dyDescent="0.25">
+      <c r="A80" s="0">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0">
         <v>5</v>
       </c>
-      <c r="C80" t="s">
-        <v>176</v>
-      </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
-      <c r="E80" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="C80" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" s="0">
+        <v>4</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" x14ac:dyDescent="0.25">
+      <c r="A81" s="0">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0">
         <v>5</v>
       </c>
-      <c r="C81" t="s">
-        <v>177</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-      <c r="E81" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="C81" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="0">
+        <v>4</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" x14ac:dyDescent="0.25">
+      <c r="A82" s="0">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0">
         <v>5</v>
       </c>
-      <c r="C82" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="C82" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="0">
+        <v>4</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" x14ac:dyDescent="0.25">
+      <c r="A83" s="0">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0">
         <v>6</v>
       </c>
-      <c r="C83" t="s">
-        <v>179</v>
-      </c>
-      <c r="D83">
-        <v>4</v>
-      </c>
-      <c r="E83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="C83" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D83" s="0">
+        <v>4</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" x14ac:dyDescent="0.25">
+      <c r="A84" s="0">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0">
         <v>6</v>
       </c>
-      <c r="C84" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-      <c r="E84" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="C84" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" s="0">
+        <v>4</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" x14ac:dyDescent="0.25">
+      <c r="A85" s="0">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0">
         <v>6</v>
       </c>
-      <c r="C85" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85" t="s">
-        <v>187</v>
+      <c r="C85" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" s="0">
+        <v>4</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/config/stimuli.xlsx
+++ b/config/stimuli.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="467">
   <si>
     <t>stim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,6 +871,564 @@
   </si>
   <si>
     <t>0.31-0.20</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>group_note</t>
+  </si>
+  <si>
+    <t>第一象限</t>
+  </si>
+  <si>
+    <t>第二象限</t>
+  </si>
+  <si>
+    <t>第三象限</t>
+  </si>
+  <si>
+    <t>第四象限</t>
+  </si>
+  <si>
+    <t>stim_id</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>stim</t>
+  </si>
+  <si>
+    <t>0.90-0.15</t>
+  </si>
+  <si>
+    <t>0.66-0.38</t>
+  </si>
+  <si>
+    <t>0.77-0.56</t>
+  </si>
+  <si>
+    <t>0.85-0.76</t>
+  </si>
+  <si>
+    <t>0.86-0.50</t>
+  </si>
+  <si>
+    <t>1.00-0.32</t>
+  </si>
+  <si>
+    <t>0.86-0.68</t>
+  </si>
+  <si>
+    <t>0.82-0.45</t>
+  </si>
+  <si>
+    <t>0.82-0.64</t>
+  </si>
+  <si>
+    <t>0.84-0.52</t>
+  </si>
+  <si>
+    <t>0.85-0.27</t>
+  </si>
+  <si>
+    <t>0.82-0.46</t>
+  </si>
+  <si>
+    <t>0.61-0.51</t>
+  </si>
+  <si>
+    <t>0.73-0.66</t>
+  </si>
+  <si>
+    <t>0.99-0.73</t>
+  </si>
+  <si>
+    <t>0.68-0.50</t>
+  </si>
+  <si>
+    <t>0.84-0.59</t>
+  </si>
+  <si>
+    <t>0.96-0.91</t>
+  </si>
+  <si>
+    <t>0.96-0.55</t>
+  </si>
+  <si>
+    <t>0.69-0.68</t>
+  </si>
+  <si>
+    <t>0.79-0.23</t>
+  </si>
+  <si>
+    <t>0.81-0.92</t>
+  </si>
+  <si>
+    <t>0.42-0.91</t>
+  </si>
+  <si>
+    <t>0.57-0.65</t>
+  </si>
+  <si>
+    <t>0.22-0.91</t>
+  </si>
+  <si>
+    <t>0.52-0.97</t>
+  </si>
+  <si>
+    <t>0.63-0.64</t>
+  </si>
+  <si>
+    <t>0.34-0.77</t>
+  </si>
+  <si>
+    <t>0.44-0.59</t>
+  </si>
+  <si>
+    <t>0.76-0.87</t>
+  </si>
+  <si>
+    <t>0.33-0.87</t>
+  </si>
+  <si>
+    <t>0.77-0.92</t>
+  </si>
+  <si>
+    <t>0.59-0.64</t>
+  </si>
+  <si>
+    <t>0.72-0.84</t>
+  </si>
+  <si>
+    <t>0.67-0.93</t>
+  </si>
+  <si>
+    <t>0.21-0.82</t>
+  </si>
+  <si>
+    <t>0.46-0.64</t>
+  </si>
+  <si>
+    <t>0.19-0.94</t>
+  </si>
+  <si>
+    <t>0.77-0.80</t>
+  </si>
+  <si>
+    <t>0.60-0.68</t>
+  </si>
+  <si>
+    <t>0.26-0.81</t>
+  </si>
+  <si>
+    <t>0.16-0.84</t>
+  </si>
+  <si>
+    <t>0.08-0.81</t>
+  </si>
+  <si>
+    <t>0.18-0.61</t>
+  </si>
+  <si>
+    <t>0.09-0.14</t>
+  </si>
+  <si>
+    <t>0.02-0.63</t>
+  </si>
+  <si>
+    <t>0.27-0.67</t>
+  </si>
+  <si>
+    <t>0.33-0.60</t>
+  </si>
+  <si>
+    <t>0.44-0.55</t>
+  </si>
+  <si>
+    <t>0.19-0.71</t>
+  </si>
+  <si>
+    <t>0.15-0.22</t>
+  </si>
+  <si>
+    <t>0.22-0.54</t>
+  </si>
+  <si>
+    <t>0.22-0.48</t>
+  </si>
+  <si>
+    <t>0.05-0.69</t>
+  </si>
+  <si>
+    <t>0.12-0.28</t>
+  </si>
+  <si>
+    <t>0.24-0.72</t>
+  </si>
+  <si>
+    <t>0.29-0.68</t>
+  </si>
+  <si>
+    <t>0.07-0.22</t>
+  </si>
+  <si>
+    <t>0.31-0.35</t>
+  </si>
+  <si>
+    <t>0.26-0.54</t>
+  </si>
+  <si>
+    <t>0.21-0.24</t>
+  </si>
+  <si>
+    <t>0.05-0.69</t>
+  </si>
+  <si>
+    <t>0.08-0.16</t>
+  </si>
+  <si>
+    <t>0.72-0.07</t>
+  </si>
+  <si>
+    <t>0.50-0.28</t>
+  </si>
+  <si>
+    <t>0.10-0.09</t>
+  </si>
+  <si>
+    <t>0.72-0.27</t>
+  </si>
+  <si>
+    <t>0.84-0.04</t>
+  </si>
+  <si>
+    <t>0.20-0.20</t>
+  </si>
+  <si>
+    <t>0.46-0.40</t>
+  </si>
+  <si>
+    <t>0.46-0.20</t>
+  </si>
+  <si>
+    <t>0.47-0.37</t>
+  </si>
+  <si>
+    <t>0.78-0.01</t>
+  </si>
+  <si>
+    <t>0.50-0.37</t>
+  </si>
+  <si>
+    <t>0.65-0.28</t>
+  </si>
+  <si>
+    <t>0.25-0.25</t>
+  </si>
+  <si>
+    <t>0.73-0.09</t>
+  </si>
+  <si>
+    <t>0.40-0.09</t>
+  </si>
+  <si>
+    <t>0.56-0.33</t>
+  </si>
+  <si>
+    <t>0.56-0.18</t>
+  </si>
+  <si>
+    <t>0.65-0.07</t>
+  </si>
+  <si>
+    <t>0.50-0.21</t>
+  </si>
+  <si>
+    <t>0.35-0.15</t>
+  </si>
+  <si>
+    <t>0.23-0.00</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>group_note</t>
+  </si>
+  <si>
+    <t>第一象限</t>
+  </si>
+  <si>
+    <t>第二象限</t>
+  </si>
+  <si>
+    <t>第三象限</t>
+  </si>
+  <si>
+    <t>第四象限</t>
+  </si>
+  <si>
+    <t>stim_id</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>stim</t>
+  </si>
+  <si>
+    <t>0.77-0.56</t>
+  </si>
+  <si>
+    <t>0.86-0.50</t>
+  </si>
+  <si>
+    <t>1.00-0.32</t>
+  </si>
+  <si>
+    <t>0.86-0.68</t>
+  </si>
+  <si>
+    <t>0.82-0.45</t>
+  </si>
+  <si>
+    <t>0.82-0.64</t>
+  </si>
+  <si>
+    <t>0.84-0.52</t>
+  </si>
+  <si>
+    <t>0.85-0.27</t>
+  </si>
+  <si>
+    <t>0.82-0.46</t>
+  </si>
+  <si>
+    <t>0.99-0.73</t>
+  </si>
+  <si>
+    <t>0.68-0.50</t>
+  </si>
+  <si>
+    <t>0.84-0.59</t>
+  </si>
+  <si>
+    <t>0.96-0.55</t>
+  </si>
+  <si>
+    <t>0.88-0.38</t>
+  </si>
+  <si>
+    <t>0.86-0.54</t>
+  </si>
+  <si>
+    <t>0.71-0.51</t>
+  </si>
+  <si>
+    <t>0.66-0.46</t>
+  </si>
+  <si>
+    <t>0.98-0.40</t>
+  </si>
+  <si>
+    <t>0.75-0.36</t>
+  </si>
+  <si>
+    <t>0.74-0.36</t>
+  </si>
+  <si>
+    <t>0.75-0.41</t>
+  </si>
+  <si>
+    <t>0.46-0.64</t>
+  </si>
+  <si>
+    <t>0.19-0.94</t>
+  </si>
+  <si>
+    <t>0.61-0.99</t>
+  </si>
+  <si>
+    <t>0.71-0.94</t>
+  </si>
+  <si>
+    <t>0.47-0.74</t>
+  </si>
+  <si>
+    <t>0.32-0.81</t>
+  </si>
+  <si>
+    <t>0.37-0.93</t>
+  </si>
+  <si>
+    <t>0.67-0.83</t>
+  </si>
+  <si>
+    <t>0.54-0.85</t>
+  </si>
+  <si>
+    <t>0.52-0.67</t>
+  </si>
+  <si>
+    <t>0.15-0.96</t>
+  </si>
+  <si>
+    <t>0.52-0.89</t>
+  </si>
+  <si>
+    <t>0.60-0.74</t>
+  </si>
+  <si>
+    <t>0.69-0.88</t>
+  </si>
+  <si>
+    <t>0.13-0.99</t>
+  </si>
+  <si>
+    <t>0.27-0.87</t>
+  </si>
+  <si>
+    <t>0.55-0.77</t>
+  </si>
+  <si>
+    <t>0.38-0.91</t>
+  </si>
+  <si>
+    <t>0.51-0.90</t>
+  </si>
+  <si>
+    <t>0.61-0.90</t>
+  </si>
+  <si>
+    <t>0.66-0.89</t>
+  </si>
+  <si>
+    <t>0.25-0.55</t>
+  </si>
+  <si>
+    <t>0.08-0.46</t>
+  </si>
+  <si>
+    <t>0.27-0.58</t>
+  </si>
+  <si>
+    <t>0.16-0.46</t>
+  </si>
+  <si>
+    <t>0.08-0.19</t>
+  </si>
+  <si>
+    <t>0.31-0.55</t>
+  </si>
+  <si>
+    <t>0.30-0.55</t>
+  </si>
+  <si>
+    <t>0.01-0.13</t>
+  </si>
+  <si>
+    <t>0.31-0.48</t>
+  </si>
+  <si>
+    <t>0.19-0.64</t>
+  </si>
+  <si>
+    <t>0.02-0.51</t>
+  </si>
+  <si>
+    <t>0.07-0.60</t>
+  </si>
+  <si>
+    <t>0.04-0.54</t>
+  </si>
+  <si>
+    <t>0.06-0.26</t>
+  </si>
+  <si>
+    <t>0.07-0.45</t>
+  </si>
+  <si>
+    <t>0.12-0.37</t>
+  </si>
+  <si>
+    <t>0.19-0.71</t>
+  </si>
+  <si>
+    <t>0.06-0.32</t>
+  </si>
+  <si>
+    <t>0.06-0.27</t>
+  </si>
+  <si>
+    <t>0.30-0.55</t>
+  </si>
+  <si>
+    <t>0.23-0.51</t>
+  </si>
+  <si>
+    <t>0.44-0.29</t>
+  </si>
+  <si>
+    <t>0.65-0.20</t>
+  </si>
+  <si>
+    <t>0.64-0.13</t>
+  </si>
+  <si>
+    <t>0.54-0.36</t>
+  </si>
+  <si>
+    <t>0.51-0.21</t>
+  </si>
+  <si>
+    <t>0.56-0.10</t>
+  </si>
+  <si>
+    <t>0.41-0.29</t>
+  </si>
+  <si>
+    <t>0.37-0.24</t>
+  </si>
+  <si>
+    <t>0.47-0.12</t>
+  </si>
+  <si>
+    <t>0.33-0.04</t>
+  </si>
+  <si>
+    <t>0.76-0.09</t>
+  </si>
+  <si>
+    <t>0.12-0.00</t>
+  </si>
+  <si>
+    <t>0.63-0.04</t>
+  </si>
+  <si>
+    <t>0.48-0.21</t>
+  </si>
+  <si>
+    <t>0.72-0.13</t>
+  </si>
+  <si>
+    <t>0.45-0.05</t>
+  </si>
+  <si>
+    <t>0.37-0.12</t>
+  </si>
+  <si>
+    <t>0.53-0.08</t>
+  </si>
+  <si>
+    <t>0.17-0.05</t>
+  </si>
+  <si>
+    <t>0.65-0.22</t>
+  </si>
+  <si>
+    <t>0.67-0.09</t>
   </si>
   <si>
     <t>group</t>
@@ -920,7 +1478,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -929,17 +1487,21 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4257,19 +4819,19 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>189</v>
+        <v>375</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>190</v>
+        <v>376</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>275</v>
+        <v>461</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>276</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
@@ -4280,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>191</v>
+        <v>377</v>
       </c>
       <c r="D2" s="0">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
@@ -4297,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>192</v>
+        <v>378</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
@@ -4314,13 +4876,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>193</v>
+        <v>379</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -4331,13 +4893,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
@@ -4348,13 +4910,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>195</v>
+        <v>381</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -4365,13 +4927,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>196</v>
+        <v>382</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
@@ -4382,13 +4944,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>197</v>
+        <v>383</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
@@ -4399,13 +4961,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>198</v>
+        <v>384</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -4416,13 +4978,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>199</v>
+        <v>385</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -4433,13 +4995,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>200</v>
+        <v>386</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
@@ -4450,13 +5012,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>201</v>
+        <v>387</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -4467,13 +5029,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>202</v>
+        <v>388</v>
       </c>
       <c r="D13" s="0">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
@@ -4484,13 +5046,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>203</v>
+        <v>389</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
@@ -4501,13 +5063,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>204</v>
+        <v>390</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
@@ -4518,13 +5080,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>205</v>
+        <v>391</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
@@ -4535,13 +5097,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>206</v>
+        <v>392</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
@@ -4552,13 +5114,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>207</v>
+        <v>393</v>
       </c>
       <c r="D18" s="0">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
@@ -4569,13 +5131,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>208</v>
+        <v>394</v>
       </c>
       <c r="D19" s="0">
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
@@ -4586,13 +5148,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="D20" s="0">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
@@ -4603,13 +5165,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>210</v>
+        <v>396</v>
       </c>
       <c r="D21" s="0">
         <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
@@ -4620,13 +5182,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>211</v>
+        <v>397</v>
       </c>
       <c r="D22" s="0">
         <v>1</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
@@ -4637,13 +5199,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>212</v>
+        <v>398</v>
       </c>
       <c r="D23" s="0">
         <v>2</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
@@ -4654,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>213</v>
+        <v>399</v>
       </c>
       <c r="D24" s="0">
         <v>2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
@@ -4671,13 +5233,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>214</v>
+        <v>400</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
@@ -4688,13 +5250,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>215</v>
+        <v>401</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
@@ -4705,13 +5267,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>216</v>
+        <v>402</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" x14ac:dyDescent="0.25">
@@ -4722,13 +5284,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="D28" s="0">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
@@ -4739,13 +5301,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="D29" s="0">
         <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25">
@@ -4756,13 +5318,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>219</v>
+        <v>405</v>
       </c>
       <c r="D30" s="0">
         <v>2</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
@@ -4773,13 +5335,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>220</v>
+        <v>406</v>
       </c>
       <c r="D31" s="0">
         <v>2</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" x14ac:dyDescent="0.25">
@@ -4790,13 +5352,13 @@
         <v>3</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>221</v>
+        <v>407</v>
       </c>
       <c r="D32" s="0">
         <v>2</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
@@ -4807,13 +5369,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>222</v>
+        <v>408</v>
       </c>
       <c r="D33" s="0">
         <v>2</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" x14ac:dyDescent="0.25">
@@ -4824,13 +5386,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>223</v>
+        <v>409</v>
       </c>
       <c r="D34" s="0">
         <v>2</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
@@ -4841,13 +5403,13 @@
         <v>4</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="D35" s="0">
         <v>2</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" x14ac:dyDescent="0.25">
@@ -4858,13 +5420,13 @@
         <v>4</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>225</v>
+        <v>411</v>
       </c>
       <c r="D36" s="0">
         <v>2</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
@@ -4875,13 +5437,13 @@
         <v>4</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>226</v>
+        <v>412</v>
       </c>
       <c r="D37" s="0">
         <v>2</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" x14ac:dyDescent="0.25">
@@ -4892,13 +5454,13 @@
         <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>227</v>
+        <v>413</v>
       </c>
       <c r="D38" s="0">
         <v>2</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25">
@@ -4909,13 +5471,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>228</v>
+        <v>414</v>
       </c>
       <c r="D39" s="0">
         <v>2</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" x14ac:dyDescent="0.25">
@@ -4926,13 +5488,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>229</v>
+        <v>415</v>
       </c>
       <c r="D40" s="0">
         <v>2</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
@@ -4943,13 +5505,13 @@
         <v>6</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>230</v>
+        <v>416</v>
       </c>
       <c r="D41" s="0">
         <v>2</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25">
@@ -4960,13 +5522,13 @@
         <v>6</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>231</v>
+        <v>417</v>
       </c>
       <c r="D42" s="0">
         <v>2</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" x14ac:dyDescent="0.25">
@@ -4977,13 +5539,13 @@
         <v>6</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>232</v>
+        <v>418</v>
       </c>
       <c r="D43" s="0">
         <v>2</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>278</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.25">
@@ -4994,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>233</v>
+        <v>419</v>
       </c>
       <c r="D44" s="0">
         <v>3</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
@@ -5011,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>234</v>
+        <v>420</v>
       </c>
       <c r="D45" s="0">
         <v>3</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" x14ac:dyDescent="0.25">
@@ -5028,13 +5590,13 @@
         <v>0</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>235</v>
+        <v>421</v>
       </c>
       <c r="D46" s="0">
         <v>3</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
@@ -5045,13 +5607,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>236</v>
+        <v>422</v>
       </c>
       <c r="D47" s="0">
         <v>3</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" x14ac:dyDescent="0.25">
@@ -5062,13 +5624,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>237</v>
+        <v>423</v>
       </c>
       <c r="D48" s="0">
         <v>3</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
@@ -5079,13 +5641,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>238</v>
+        <v>424</v>
       </c>
       <c r="D49" s="0">
         <v>3</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" x14ac:dyDescent="0.25">
@@ -5096,13 +5658,13 @@
         <v>2</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>239</v>
+        <v>425</v>
       </c>
       <c r="D50" s="0">
         <v>3</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
@@ -5113,13 +5675,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>240</v>
+        <v>426</v>
       </c>
       <c r="D51" s="0">
         <v>3</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25">
@@ -5130,13 +5692,13 @@
         <v>2</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>241</v>
+        <v>427</v>
       </c>
       <c r="D52" s="0">
         <v>3</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
@@ -5147,13 +5709,13 @@
         <v>3</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>242</v>
+        <v>428</v>
       </c>
       <c r="D53" s="0">
         <v>3</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
@@ -5164,13 +5726,13 @@
         <v>3</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>243</v>
+        <v>429</v>
       </c>
       <c r="D54" s="0">
         <v>3</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25">
@@ -5181,13 +5743,13 @@
         <v>3</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>244</v>
+        <v>430</v>
       </c>
       <c r="D55" s="0">
         <v>3</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" x14ac:dyDescent="0.25">
@@ -5198,13 +5760,13 @@
         <v>4</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>245</v>
+        <v>431</v>
       </c>
       <c r="D56" s="0">
         <v>3</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
@@ -5215,13 +5777,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>246</v>
+        <v>432</v>
       </c>
       <c r="D57" s="0">
         <v>3</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" x14ac:dyDescent="0.25">
@@ -5232,13 +5794,13 @@
         <v>4</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>247</v>
+        <v>433</v>
       </c>
       <c r="D58" s="0">
         <v>3</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
@@ -5249,13 +5811,13 @@
         <v>5</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>248</v>
+        <v>434</v>
       </c>
       <c r="D59" s="0">
         <v>3</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" x14ac:dyDescent="0.25">
@@ -5266,13 +5828,13 @@
         <v>5</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>249</v>
+        <v>435</v>
       </c>
       <c r="D60" s="0">
         <v>3</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25">
@@ -5283,13 +5845,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>250</v>
+        <v>436</v>
       </c>
       <c r="D61" s="0">
         <v>3</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" x14ac:dyDescent="0.25">
@@ -5300,13 +5862,13 @@
         <v>6</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>251</v>
+        <v>437</v>
       </c>
       <c r="D62" s="0">
         <v>3</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" x14ac:dyDescent="0.25">
@@ -5317,13 +5879,13 @@
         <v>6</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>252</v>
+        <v>438</v>
       </c>
       <c r="D63" s="0">
         <v>3</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" x14ac:dyDescent="0.25">
@@ -5334,13 +5896,13 @@
         <v>6</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>253</v>
+        <v>439</v>
       </c>
       <c r="D64" s="0">
         <v>3</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25">
@@ -5351,13 +5913,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>254</v>
+        <v>440</v>
       </c>
       <c r="D65" s="0">
         <v>4</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" x14ac:dyDescent="0.25">
@@ -5368,13 +5930,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>255</v>
+        <v>441</v>
       </c>
       <c r="D66" s="0">
         <v>4</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" x14ac:dyDescent="0.25">
@@ -5385,13 +5947,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>256</v>
+        <v>442</v>
       </c>
       <c r="D67" s="0">
         <v>4</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" x14ac:dyDescent="0.25">
@@ -5402,13 +5964,13 @@
         <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>257</v>
+        <v>443</v>
       </c>
       <c r="D68" s="0">
         <v>4</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25">
@@ -5419,13 +5981,13 @@
         <v>1</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>258</v>
+        <v>444</v>
       </c>
       <c r="D69" s="0">
         <v>4</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" x14ac:dyDescent="0.25">
@@ -5436,13 +5998,13 @@
         <v>1</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>259</v>
+        <v>445</v>
       </c>
       <c r="D70" s="0">
         <v>4</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
@@ -5453,13 +6015,13 @@
         <v>2</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>260</v>
+        <v>446</v>
       </c>
       <c r="D71" s="0">
         <v>4</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" x14ac:dyDescent="0.25">
@@ -5470,13 +6032,13 @@
         <v>2</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>261</v>
+        <v>447</v>
       </c>
       <c r="D72" s="0">
         <v>4</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
@@ -5487,13 +6049,13 @@
         <v>2</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>262</v>
+        <v>448</v>
       </c>
       <c r="D73" s="0">
         <v>4</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" x14ac:dyDescent="0.25">
@@ -5504,13 +6066,13 @@
         <v>3</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="D74" s="0">
         <v>4</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25">
@@ -5521,13 +6083,13 @@
         <v>3</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>264</v>
+        <v>450</v>
       </c>
       <c r="D75" s="0">
         <v>4</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" x14ac:dyDescent="0.25">
@@ -5538,13 +6100,13 @@
         <v>3</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>265</v>
+        <v>451</v>
       </c>
       <c r="D76" s="0">
         <v>4</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" x14ac:dyDescent="0.25">
@@ -5555,13 +6117,13 @@
         <v>4</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>266</v>
+        <v>452</v>
       </c>
       <c r="D77" s="0">
         <v>4</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" x14ac:dyDescent="0.25">
@@ -5572,13 +6134,13 @@
         <v>4</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="D78" s="0">
         <v>4</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25">
@@ -5589,13 +6151,13 @@
         <v>4</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>268</v>
+        <v>454</v>
       </c>
       <c r="D79" s="0">
         <v>4</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" x14ac:dyDescent="0.25">
@@ -5606,13 +6168,13 @@
         <v>5</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>269</v>
+        <v>455</v>
       </c>
       <c r="D80" s="0">
         <v>4</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" x14ac:dyDescent="0.25">
@@ -5623,13 +6185,13 @@
         <v>5</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>270</v>
+        <v>456</v>
       </c>
       <c r="D81" s="0">
         <v>4</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" x14ac:dyDescent="0.25">
@@ -5640,13 +6202,13 @@
         <v>5</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>271</v>
+        <v>457</v>
       </c>
       <c r="D82" s="0">
         <v>4</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" x14ac:dyDescent="0.25">
@@ -5657,13 +6219,13 @@
         <v>6</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>272</v>
+        <v>458</v>
       </c>
       <c r="D83" s="0">
         <v>4</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" x14ac:dyDescent="0.25">
@@ -5674,13 +6236,13 @@
         <v>6</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>273</v>
+        <v>459</v>
       </c>
       <c r="D84" s="0">
         <v>4</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" x14ac:dyDescent="0.25">
@@ -5691,13 +6253,13 @@
         <v>6</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="D85" s="0">
         <v>4</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
